--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043781.976672377</v>
+        <v>1063291.839339926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453904</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178669</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8245676.816503653</v>
+        <v>8741444.553986698</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.5160571595271</v>
+        <v>288.0577456012404</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -716,16 +718,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>80.26262094990524</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>180.6077930059086</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>53.90246815613291</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>176.3959166981549</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>165.8947975739489</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.2264265746477</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1148,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>161.725711161302</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>80.98737147069393</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>171.8390057600657</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>392.7694552798594</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>165.421695385058</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1619,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>236.732879185509</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>143.375432186691</v>
       </c>
       <c r="E19" t="n">
-        <v>123.4663257560838</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>97.46748333863208</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>62.68223391146829</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>248.9925180568699</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>181.5733848809636</v>
+        <v>355.4445328256814</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>150.3401587928677</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>28.0149076090946</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>228.8258688538636</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712308</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2713,19 +2715,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>129.3661282278401</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>59.78186949969471</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2779,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2807,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260363</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2858,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3562652764835</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3272,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.74588807992554</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3433,13 +3435,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>112.1027016460445</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3511,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>101.6409518870414</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3679,7 +3681,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>142.535930338006</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>13.88126300749902</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>297.0182667594507</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3898,16 +3900,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>161.6218091235291</v>
       </c>
       <c r="V43" t="n">
-        <v>29.1190767570021</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>356.9224994274309</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>154.076308087965</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4144,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>112.1027016460445</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.545628479909</v>
+        <v>166.6022603407614</v>
       </c>
       <c r="C2" t="n">
-        <v>985.4210377931789</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>580.9571078862394</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>166.6168924031362</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>149.6268843972278</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.338142568815</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="N2" t="n">
-        <v>2034.355257957088</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.487731972852</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.87452311782</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2314.81403137733</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>2314.81403137733</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="W2" t="n">
-        <v>1931.053730512499</v>
+        <v>1259.149751022951</v>
       </c>
       <c r="X2" t="n">
-        <v>1530.410332681451</v>
+        <v>858.5063531919041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1530.410332681451</v>
+        <v>457.5696801399941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844744</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.251002659307</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736457</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>58.5872416475372</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>58.5872416475372</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>489.5689897796294</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O3" t="n">
-        <v>1193.526080325524</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.96318575601</v>
+        <v>556.0423322891296</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.96318575601</v>
+        <v>556.0423322891296</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.96318575601</v>
+        <v>556.0423322891296</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.96318575601</v>
+        <v>556.0423322891296</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.96318575601</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>1399.96318575601</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
-        <v>1399.96318575601</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2844.08936405226</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>2657.69759593217</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>2418.148856908872</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>2135.350709454996</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>1861.464964394518</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W4" t="n">
-        <v>1582.395299903393</v>
+        <v>1206.821599434726</v>
       </c>
       <c r="X4" t="n">
-        <v>1399.96318575601</v>
+        <v>968.4777372944093</v>
       </c>
       <c r="Y4" t="n">
-        <v>1399.96318575601</v>
+        <v>743.742038683174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1377.249644757452</v>
+        <v>134.2739093227466</v>
       </c>
       <c r="C5" t="n">
-        <v>967.1250540707216</v>
+        <v>128.1897226764208</v>
       </c>
       <c r="D5" t="n">
-        <v>562.6611241637821</v>
+        <v>73.7427851449734</v>
       </c>
       <c r="E5" t="n">
-        <v>552.3613127210829</v>
+        <v>63.44297370227417</v>
       </c>
       <c r="F5" t="n">
-        <v>374.183619086583</v>
+        <v>46.45296569636578</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>123.1055953709714</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L5" t="n">
-        <v>835.6969951832094</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M5" t="n">
-        <v>1560.714110571482</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N5" t="n">
-        <v>2285.731225959755</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>2929.36208237686</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2571.87452311782</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2571.87452311782</v>
+        <v>1346.075159870193</v>
       </c>
       <c r="W5" t="n">
-        <v>2188.114222252988</v>
+        <v>1346.075159870193</v>
       </c>
       <c r="X5" t="n">
-        <v>1787.470824421941</v>
+        <v>945.431762039146</v>
       </c>
       <c r="Y5" t="n">
-        <v>1787.470824421941</v>
+        <v>544.495088987236</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>114.3963390753401</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>114.3963390753401</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>114.3963390753401</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>839.4134544636129</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>839.4134544636129</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.0266599814946</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>174.9332875432111</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>174.9332875432111</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>174.9332875432111</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9332875432111</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>174.9332875432111</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1335.142917343838</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1095.594178320541</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>812.7960308666646</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>812.7960308666646</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>533.726366375539</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>533.726366375539</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.726366375539</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2203.626436560717</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1793.501845873987</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1389.037915967048</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>974.6977004839443</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>553.6672884376319</v>
+        <v>892.0062696297456</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>483.2779855225778</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>172.3694881502957</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>307.2915647909728</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>845.4510659000123</v>
       </c>
       <c r="L8" t="n">
-        <v>1309.338142568815</v>
+        <v>1558.04246571225</v>
       </c>
       <c r="M8" t="n">
-        <v>2034.355257957088</v>
+        <v>2334.361056704004</v>
       </c>
       <c r="N8" t="n">
-        <v>2759.372373345361</v>
+        <v>3087.542073342622</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3731.172929759727</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678879</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678879</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="T8" t="n">
-        <v>2571.87452311782</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="U8" t="n">
-        <v>2571.87452311782</v>
+        <v>4300.886273368444</v>
       </c>
       <c r="V8" t="n">
-        <v>2222.036968454301</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>2222.036968454301</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2222.036968454301</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2222.036968454301</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471287</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>278.8305830300021</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>734.6368392953009</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>734.6368392953009</v>
       </c>
       <c r="M9" t="n">
-        <v>719.6754135668255</v>
+        <v>1577.613919989868</v>
       </c>
       <c r="N9" t="n">
-        <v>719.6754135668255</v>
+        <v>1577.613919989868</v>
       </c>
       <c r="O9" t="n">
-        <v>1423.63250411272</v>
+        <v>1577.613919989868</v>
       </c>
       <c r="P9" t="n">
-        <v>1985.33839660125</v>
+        <v>1782.662456633886</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.0818863246272</v>
+        <v>511.4658712346761</v>
       </c>
       <c r="C10" t="n">
-        <v>218.0818863246272</v>
+        <v>511.4658712346761</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>351.9712265575861</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>351.9712265575861</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>351.9712265575861</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>351.9712265575861</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>202.3637713630427</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736888</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725794</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948174</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.549702874878</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.8137593153713</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709622</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036096</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1429.024853968129</v>
       </c>
       <c r="T10" t="n">
-        <v>1316.321651823697</v>
+        <v>1347.219428240156</v>
       </c>
       <c r="U10" t="n">
-        <v>1316.321651823697</v>
+        <v>1064.42128078628</v>
       </c>
       <c r="V10" t="n">
-        <v>1042.435906763219</v>
+        <v>790.5355357258018</v>
       </c>
       <c r="W10" t="n">
-        <v>868.8611534702236</v>
+        <v>511.4658712346761</v>
       </c>
       <c r="X10" t="n">
-        <v>630.5172913299069</v>
+        <v>511.4658712346761</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.7815927186716</v>
+        <v>511.4658712346761</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>783.8359545029225</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>783.8359545029225</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>783.8359545029225</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>369.4957390198192</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>369.4957390198192</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>369.4957390198192</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.81403137733</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.976476713811</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>1581.216175848979</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1180.572778017932</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1180.572778017932</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M12" t="n">
-        <v>839.4134544636129</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N12" t="n">
-        <v>839.4134544636129</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2034.022272842952</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>1623.897682156222</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1219.433752249283</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>805.0935367661796</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>384.0631247198671</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0631247198671</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1883.183960193295</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2608.201075581568</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2608.201075581568</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2794.081007170961</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2794.081007170961</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2444.243452507442</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2444.243452507442</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2444.243452507442</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2444.243452507442</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>251.4000992101705</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>251.4000992101705</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>912.4882711294587</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M15" t="n">
-        <v>912.4882711294587</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.505386517731</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5558,7 +5560,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>3264.314802508572</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3396.521901496716</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>3396.521901496716</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>3396.521901496716</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.5451751656769</v>
+        <v>851.048725921115</v>
       </c>
       <c r="C19" t="n">
-        <v>377.4518027273934</v>
+        <v>679.9553534828315</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9571580503035</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>1263.484130926395</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.5451751656769</v>
+        <v>1038.748432315159</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5753,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5765,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.0360297861687</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0360297861687</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>859.9217748466467</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V22" t="n">
-        <v>586.0360297861687</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W22" t="n">
-        <v>586.0360297861687</v>
+        <v>3826.43132752566</v>
       </c>
       <c r="X22" t="n">
-        <v>586.0360297861687</v>
+        <v>3588.087465385343</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.0360297861687</v>
+        <v>3363.351766774108</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.23772745581</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.11313676908</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.930282068041</v>
+        <v>1287.649206862141</v>
       </c>
       <c r="E23" t="n">
-        <v>1008.590066584938</v>
+        <v>873.3089913790377</v>
       </c>
       <c r="F23" t="n">
-        <v>587.5596545386256</v>
+        <v>452.2785793327253</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5990,49 +5992,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674161</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079654</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.903809325239</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272098</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531608</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.799278868089</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003257</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.39558017221</v>
       </c>
       <c r="Y23" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.4589071203</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3303.879360348573</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
         <v>3132.785987910289</v>
@@ -6181,16 +6183,16 @@
         <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>3716.314765353853</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>3716.314765353853</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="X25" t="n">
-        <v>3716.314765353853</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="Y25" t="n">
-        <v>3491.579066742617</v>
+        <v>3565.989880074963</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2359.298219196301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.173628509571</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1544.709698602632</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1130.369483119528</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6257,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3170.456071912701</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2769.519398860791</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>549.4584955075102</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>549.4584955075102</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>549.4584955075102</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>388.5476803758297</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>223.9165544864209</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6418,16 +6420,16 @@
         <v>1254.571728532997</v>
       </c>
       <c r="V28" t="n">
-        <v>1194.186001765628</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W28" t="n">
-        <v>915.1163372745027</v>
+        <v>975.5020640418711</v>
       </c>
       <c r="X28" t="n">
-        <v>676.772475134186</v>
+        <v>737.1582019015545</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.0367765229507</v>
+        <v>737.1582019015545</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6473,13 +6475,13 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q29" t="n">
         <v>4621.628238841575</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2549.191389976085</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6649,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1109.278667993779</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>835.3929229333004</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W31" t="n">
-        <v>556.3232584421747</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X31" t="n">
-        <v>317.9793963018581</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4228.544372554647</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>4228.544372554647</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V34" t="n">
-        <v>3954.658627494169</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6922,25 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977907</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7023,10 +7025,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.231502096085</v>
+        <v>3624.284820157343</v>
       </c>
       <c r="C37" t="n">
-        <v>895.138129657802</v>
+        <v>3453.19144771906</v>
       </c>
       <c r="D37" t="n">
-        <v>735.6434849807119</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>1111.429368843485</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W37" t="n">
-        <v>1111.429368843485</v>
+        <v>4275.06408730294</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.429368843485</v>
+        <v>4036.720225162623</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.429368843485</v>
+        <v>3811.984526551388</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7175,49 +7177,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674161</v>
       </c>
       <c r="L38" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079654</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071407</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710025</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.31053412713</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841574</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531139</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4105.773792315753</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>3934.680419877469</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.185775200379</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>3614.274960068698</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>3449.64383417929</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X40" t="n">
-        <v>4518.209197321033</v>
+        <v>1384.298732171156</v>
       </c>
       <c r="Y40" t="n">
-        <v>4293.473498709797</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>779.6361049660221</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C41" t="n">
-        <v>779.6361049660221</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D41" t="n">
-        <v>779.6361049660221</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>82.5489496814065</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>795.1403494936445</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1520.157464881917</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2245.17458027019</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2888.805436687295</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2314.81403137733</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>1964.976476713811</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W41" t="n">
-        <v>1581.216175848979</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X41" t="n">
-        <v>1180.572778017932</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y41" t="n">
-        <v>779.6361049660221</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>655.0422067214914</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>1380.059322109764</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N42" t="n">
-        <v>2105.076437498037</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>389.1752587629107</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C43" t="n">
-        <v>218.0818863246272</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.437399245089</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U43" t="n">
-        <v>1348.437399245089</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="V43" t="n">
-        <v>1319.024190399633</v>
+        <v>1187.723755216753</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.954525908507</v>
+        <v>908.6540907256278</v>
       </c>
       <c r="X43" t="n">
-        <v>801.6106637681904</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8749651569551</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.412090093932</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C44" t="n">
-        <v>1027.412090093932</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D44" t="n">
-        <v>622.9481601869929</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E44" t="n">
-        <v>622.9481601869929</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>622.9481601869929</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>214.2198760798251</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7727131152915</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>1025.36411292753</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1750.381228315802</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2475.398343704075</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2571.87452311782</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.036968454301</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1838.276667589469</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1437.633269758422</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1437.633269758422</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>655.0422067214914</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>1380.059322109764</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.0860738945912</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>378.9927014563077</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4980567792177</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>58.5872416475372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.100393207909</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W46" t="n">
-        <v>1200.865341040188</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X46" t="n">
-        <v>962.5214788998709</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.7857802886356</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>97.36399180332234</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>488.5284925170754</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>154.3064439393123</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>553.6531472828633</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>107.7420644846493</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>64.9612675518901</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>296.8325199430088</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>264.8965524252774</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>261.3793689866603</v>
       </c>
       <c r="Q9" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,13 +8777,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>178.5117997957785</v>
+        <v>694.8191058394766</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,22 +8935,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>672.9324644817731</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>694.1034569629281</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>530.0454698891976</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>189.657048041298</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O18" t="n">
         <v>768.8192472281761</v>
@@ -9483,7 +9485,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
@@ -9492,7 +9494,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10671,13 +10673,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10826,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
-        <v>113.340135161974</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>658.5942865118129</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>551.7390066083942</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11381,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>658.5942865118129</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.34951258798515</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>71.06653321305018</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="18">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.52426604362805</v>
       </c>
       <c r="E19" t="n">
-        <v>35.83538122427987</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23908,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23944,19 +23946,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>308.5558614412305</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>123.1404754186356</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24133,10 +24135,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>30.97764792246718</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>223.0676163851325</v>
+        <v>49.19646844041472</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>120.8067288170056</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>248.2640602371198</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>187.9942390719857</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>36.21175893587187</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.3650181101785</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24889,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>76.79698635658144</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141.0768212501784</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>164.1762662001698</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>32.28731256679873</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>93.42449318090749</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>113.1785465688215</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>118.348356855808</v>
       </c>
       <c r="V43" t="n">
-        <v>242.0278108528712</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>49.1964684404137</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>153.7231043105942</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>164.1762662001698</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>805827.8075457101</v>
+        <v>797543.3205087967</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>805827.8075457101</v>
+        <v>797543.3205087967</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>805827.8075457101</v>
+        <v>819336.6281379919</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568865.0890773353</v>
+        <v>739828.1643653121</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568865.0890773354</v>
+        <v>739828.1643653121</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739828.164365312</v>
+        <v>739828.1643653122</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739828.1643653121</v>
+        <v>739828.164365312</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739828.1643653123</v>
+        <v>739828.1643653122</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739828.164365312</v>
+        <v>739828.1643653122</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568865.0890773354</v>
+        <v>739828.1643653122</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568865.0890773354</v>
+        <v>739828.1643653121</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778966</v>
+        <v>390917.7432778965</v>
       </c>
       <c r="C2" t="n">
         <v>390917.7432778968</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778966</v>
+        <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
-        <v>267285.0205987446</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="F2" t="n">
-        <v>267285.0205987446</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="G2" t="n">
+        <v>347578.4010421127</v>
+      </c>
+      <c r="H2" t="n">
+        <v>347578.4010421126</v>
+      </c>
+      <c r="I2" t="n">
         <v>347578.4010421129</v>
       </c>
-      <c r="H2" t="n">
-        <v>347578.4010421128</v>
-      </c>
-      <c r="I2" t="n">
-        <v>347578.4010421128</v>
-      </c>
       <c r="J2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.401042113</v>
       </c>
       <c r="K2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="L2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.401042113</v>
       </c>
       <c r="N2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="O2" t="n">
-        <v>267285.0205987447</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="P2" t="n">
-        <v>267285.0205987447</v>
+        <v>347578.4010421127</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093387</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647531</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404713</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174711.2643201475</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="C4" t="n">
-        <v>174711.2643201475</v>
+        <v>203402.6837676921</v>
       </c>
       <c r="D4" t="n">
-        <v>174711.2643201475</v>
+        <v>127926.5646606755</v>
       </c>
       <c r="E4" t="n">
-        <v>57102.1183732948</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="F4" t="n">
-        <v>57102.11837329479</v>
+        <v>74374.35696474132</v>
       </c>
       <c r="G4" t="n">
+        <v>74374.35696474131</v>
+      </c>
+      <c r="H4" t="n">
         <v>74374.35696474132</v>
-      </c>
-      <c r="H4" t="n">
-        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
         <v>74374.35696474131</v>
@@ -26454,10 +26456,10 @@
         <v>74374.35696474131</v>
       </c>
       <c r="O4" t="n">
-        <v>57102.11837329479</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>57102.1183732948</v>
+        <v>74374.35696474132</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520034</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107371.5769774743</v>
+        <v>-52809.51546140714</v>
       </c>
       <c r="C6" t="n">
-        <v>138052.575305621</v>
+        <v>122145.9944317073</v>
       </c>
       <c r="D6" t="n">
-        <v>138052.5753056208</v>
+        <v>-7837.361648047809</v>
       </c>
       <c r="E6" t="n">
-        <v>165656.5985733216</v>
+        <v>175369.8796515642</v>
       </c>
       <c r="F6" t="n">
-        <v>165656.5985733216</v>
+        <v>202338.8338324982</v>
       </c>
       <c r="G6" t="n">
-        <v>83603.64940038433</v>
+        <v>202338.8338324981</v>
       </c>
       <c r="H6" t="n">
-        <v>202338.8338324982</v>
+        <v>202338.833832498</v>
       </c>
       <c r="I6" t="n">
-        <v>202338.8338324982</v>
+        <v>202338.8338324983</v>
       </c>
       <c r="J6" t="n">
-        <v>10726.33066214529</v>
+        <v>65744.0330266034</v>
       </c>
       <c r="K6" t="n">
         <v>202338.8338324982</v>
       </c>
       <c r="L6" t="n">
-        <v>202338.8338324983</v>
+        <v>62339.52296774508</v>
       </c>
       <c r="M6" t="n">
-        <v>202338.8338324982</v>
+        <v>179829.5690584512</v>
       </c>
       <c r="N6" t="n">
         <v>202338.8338324982</v>
       </c>
       <c r="O6" t="n">
-        <v>165656.5985733217</v>
+        <v>202338.8338324981</v>
       </c>
       <c r="P6" t="n">
-        <v>165656.5985733216</v>
+        <v>202338.8338324981</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.221568342111</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720855</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067401</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.6029107083175</v>
+        <v>118.0612222666041</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27546,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>82.72219368060941</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.35263051300484</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>346.5168224517371</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>240.4241912276944</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>18.63305286493988</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>387.8925412931969</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.6134679555821</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28026,10 +28028,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>156.165880162371</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.4399620861487</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>4.174216177539211</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>435.3350991233254</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>65.17005426609514</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>56.37282568464934</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>223.5089286097009</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>171.7067767994943</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>207.1197339838565</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>120.947516057361</v>
+        <v>637.2548221010592</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,22 +35655,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>579.6422400247276</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>636.5391732245107</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>472.2939908891977</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>133.542524230449</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O18" t="n">
         <v>711.0677682281761</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
@@ -36212,7 +36214,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
-        <v>24.20374548875686</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>602.4797627009639</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>458.5492309826111</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>602.4797627009639</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1063291.839339926</v>
+        <v>1061979.193884346</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.0577456012404</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>80.02871049750352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>80.26262094990524</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>64.6183755154446</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>53.90246815613291</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>41.45194392528559</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -949,13 +949,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.264774625403</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>161.725711161302</v>
+        <v>161.7257111612966</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>80.98737147069393</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>7.783069342137682</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.12308702887171</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>300.7823595432042</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.796732052302</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1821,16 +1821,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>143.375432186691</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>144.8037079560313</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>96.08513982486603</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.68223391146829</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256814</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>47.64512042712315</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>135.8663667798421</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>28.0149076090946</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712308</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>88.08110241150609</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>129.3661282278401</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>304.7162152260363</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>43.42340976889709</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2952,10 +2952,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>154.2825923745862</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>43.42340976889709</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>112.1027016460445</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>275.5120998317608</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>101.6409518870414</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>154.3199979017279</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749902</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3799,7 +3799,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.9502098020494</v>
       </c>
       <c r="U43" t="n">
-        <v>161.6218091235291</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>356.9224994274309</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.6022603407614</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>2001.236424545407</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811263</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811263</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811263</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147451</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1259.149751022951</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1259.149751022951</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>858.5063531919041</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>457.5696801399941</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844744</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.251002659307</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736457</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.227134123859</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4442,19 +4442,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.0423322891296</v>
+        <v>521.9605579395188</v>
       </c>
       <c r="C4" t="n">
-        <v>556.0423322891296</v>
+        <v>350.8671855012354</v>
       </c>
       <c r="D4" t="n">
-        <v>556.0423322891296</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E4" t="n">
-        <v>556.0423322891296</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.821599434726</v>
+        <v>709.6602643335632</v>
       </c>
       <c r="X4" t="n">
-        <v>968.4777372944093</v>
+        <v>709.6602643335632</v>
       </c>
       <c r="Y4" t="n">
-        <v>743.742038683174</v>
+        <v>709.6602643335632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>134.2739093227466</v>
+        <v>919.902144725525</v>
       </c>
       <c r="C5" t="n">
-        <v>128.1897226764208</v>
+        <v>509.7775540387951</v>
       </c>
       <c r="D5" t="n">
-        <v>73.7427851449734</v>
+        <v>105.3136241318556</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227417</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636578</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960203</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1346.075159870193</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1346.075159870193</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>945.431762039146</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y5" t="n">
-        <v>544.495088987236</v>
+        <v>1330.123324390014</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>697.8950437660649</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>526.8016713277814</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4764,13 +4764,13 @@
         <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>1348.674310911661</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>1110.330448771344</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>885.5947501601092</v>
       </c>
     </row>
     <row r="8">
@@ -4792,52 +4792,52 @@
         <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297456</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225778</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502957</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>307.2915647909728</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>845.4510659000123</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1558.04246571225</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2334.361056704004</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>3087.542073342622</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759727</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678879</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678879</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368444</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
         <v>4137.526969165108</v>
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7663168471287</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.8305830300021</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>734.6368392953009</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="L9" t="n">
-        <v>734.6368392953009</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="M9" t="n">
-        <v>1577.613919989868</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="N9" t="n">
-        <v>1577.613919989868</v>
+        <v>487.4399542368308</v>
       </c>
       <c r="O9" t="n">
-        <v>1577.613919989868</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>1782.662456633886</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4658712346761</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4658712346761</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>351.9712265575861</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>351.9712265575861</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>351.9712265575861</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>351.9712265575861</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630427</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736888</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>100.1002748725794</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948174</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>514.549702874878</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>803.8137593153713</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1084.652541709622</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1344.213152036096</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
         <v>1549.888592285708</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1615.416622088219</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="S10" t="n">
-        <v>1429.024853968129</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="T10" t="n">
-        <v>1347.219428240156</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="U10" t="n">
-        <v>1064.42128078628</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="V10" t="n">
-        <v>790.5355357258018</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="W10" t="n">
-        <v>511.4658712346761</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="X10" t="n">
-        <v>511.4658712346761</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>511.4658712346761</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5123,25 +5123,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G13" t="n">
         <v>359.19719878084</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>1537.369875986873</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X13" t="n">
-        <v>1537.369875986873</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5314,16 +5314,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>916.2303367455215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1789.888428857139</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>1789.888428857139</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>922.8163421076072</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y17" t="n">
-        <v>2873.060806957647</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>851.048725921115</v>
+        <v>687.8603028290196</v>
       </c>
       <c r="C19" t="n">
-        <v>679.9553534828315</v>
+        <v>516.7669303907361</v>
       </c>
       <c r="D19" t="n">
-        <v>535.131684607386</v>
+        <v>516.7669303907361</v>
       </c>
       <c r="E19" t="n">
-        <v>374.2208694757054</v>
+        <v>355.8561152590556</v>
       </c>
       <c r="F19" t="n">
         <v>209.5897435862967</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1263.484130926395</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W19" t="n">
-        <v>1263.484130926395</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.484130926395</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="Y19" t="n">
-        <v>1038.748432315159</v>
+        <v>875.560009223064</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>423.0977207349383</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.074801429505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3300.036378984746</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W22" t="n">
-        <v>3826.43132752566</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X22" t="n">
-        <v>3588.087465385343</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y22" t="n">
-        <v>3363.351766774108</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.23772745581</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.11313676908</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862141</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790377</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327253</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>141.3700819604442</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -5992,49 +5992,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674161</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
-        <v>1598.180070079654</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R23" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.903809325239</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272098</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531608</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.799278868089</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003257</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.39558017221</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.4589071203</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="C25" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="D25" t="n">
-        <v>3565.989880074963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E25" t="n">
-        <v>3565.989880074963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y25" t="n">
-        <v>3565.989880074963</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629049</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.24369769062287</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4573.214074014467</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>549.4584955075102</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>549.4584955075102</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>549.4584955075102</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>388.5476803758297</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>223.9165544864209</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.571728532997</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1254.571728532997</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>975.5020640418711</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>737.1582019015545</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>737.1582019015545</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1645.136766121183</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E29" t="n">
-        <v>1230.796550638079</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F29" t="n">
-        <v>809.7661385917668</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G29" t="n">
-        <v>401.0378544845989</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H29" t="n">
-        <v>93.24369769062287</v>
+        <v>137.1057277602158</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6475,13 +6475,13 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
         <v>4621.628238841575</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.7425299376769</v>
+        <v>409.9955152208753</v>
       </c>
       <c r="C31" t="n">
-        <v>413.6491574993933</v>
+        <v>409.9955152208753</v>
       </c>
       <c r="D31" t="n">
         <v>254.1545128223033</v>
@@ -6654,19 +6654,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V31" t="n">
-        <v>1514.591461574399</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W31" t="n">
-        <v>1235.521797083273</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X31" t="n">
-        <v>997.1779349429565</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.4422363317212</v>
+        <v>597.6952216149197</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4097.330235996674</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V32" t="n">
-        <v>3747.492681333154</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W32" t="n">
-        <v>3363.732380468323</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X32" t="n">
-        <v>2963.088982637275</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.152309585365</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.369875986873</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>1537.369875986873</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.369875986873</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>1537.369875986873</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>1537.369875986873</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>1312.634177375637</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977907</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G35" t="n">
-        <v>93.24369769062287</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H35" t="n">
-        <v>93.24369769062287</v>
+        <v>137.1057277602158</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3624.284820157343</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3453.19144771906</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3293.69680304197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>4388.299139470661</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>4275.06408730294</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>4036.720225162623</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>3811.984526551388</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2134.851174492981</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1724.726583806251</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>457.8905107086616</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7177,49 +7177,49 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674161</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
-        <v>1598.180070079654</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4559.51725636241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4337.310772309269</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4080.250280568779</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2946.009027209381</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1280.372040432062</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>1006.486295371584</v>
       </c>
       <c r="W40" t="n">
-        <v>1622.642594311473</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="X40" t="n">
-        <v>1384.298732171156</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V41" t="n">
-        <v>3833.844444016082</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W41" t="n">
-        <v>3450.08414315125</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X41" t="n">
-        <v>3049.440745320202</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y41" t="n">
-        <v>2648.504072268292</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.8748235800315</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="C43" t="n">
-        <v>257.8748235800315</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D43" t="n">
-        <v>257.8748235800315</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1396.43026117809</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.723755216753</v>
+        <v>1113.632113724214</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.723755216753</v>
+        <v>1113.632113724214</v>
       </c>
       <c r="W43" t="n">
-        <v>908.6540907256278</v>
+        <v>834.5624492330883</v>
       </c>
       <c r="X43" t="n">
-        <v>670.3102285853113</v>
+        <v>596.2185870927716</v>
       </c>
       <c r="Y43" t="n">
-        <v>445.574529974076</v>
+        <v>596.2185870927716</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2151.931129920876</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
-        <v>1741.806539234146</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D44" t="n">
-        <v>1337.342609327206</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7730,22 +7730,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.572929820347</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X46" t="n">
-        <v>1343.572929820347</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y46" t="n">
-        <v>1343.572929820347</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>553.6531472828635</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574857</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>67.67798733913774</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>553.6531472828633</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>64.9612675518901</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>296.8325199430088</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>266.5423193571697</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>261.3793689866603</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>694.8191058394766</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8786,13 +8786,13 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>694.1034569629281</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>59.99090152984436</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P20" t="n">
         <v>628.1510783507341</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>389.300405673794</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9956,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>243.9932777523689</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>514.5673383305425</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11153,16 +11153,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11378,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.201745288377</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45.55681957367995</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>91.58570666159865</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14.52426604362805</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.18110667448335</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.1404754186356</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041472</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>37.84312462897442</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>22.03333145047696</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>248.2640602371198</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>45.84716204233405</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24609,13 +24609,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>36.21175893587187</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>3.617105855732859</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>164.1762662001699</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>42.06483528720048</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>164.1762662001698</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>32.28731256679873</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>125.6501680776092</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>13.2030418310155</v>
       </c>
       <c r="U43" t="n">
-        <v>118.348356855808</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.1964684404137</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -26085,7 +26085,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>819336.6281379919</v>
+        <v>819336.6281379918</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739828.1643653121</v>
+        <v>739828.1643653122</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739828.1643653121</v>
+        <v>739828.164365312</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739828.1643653123</v>
+        <v>739828.1643653121</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>739828.1643653122</v>
+        <v>739828.1643653121</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739828.164365312</v>
+        <v>739828.1643653121</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739828.1643653122</v>
+        <v>739828.1643653123</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739828.1643653123</v>
+        <v>739828.1643653122</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739828.1643653122</v>
+        <v>739828.1643653123</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>739828.1643653121</v>
+        <v>739828.1643653123</v>
       </c>
     </row>
     <row r="15">
@@ -26316,37 +26316,37 @@
         <v>390917.7432778965</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="D2" t="n">
         <v>390917.743277897</v>
       </c>
       <c r="E2" t="n">
+        <v>347578.4010421128</v>
+      </c>
+      <c r="F2" t="n">
         <v>347578.4010421127</v>
-      </c>
-      <c r="F2" t="n">
-        <v>347578.4010421128</v>
       </c>
       <c r="G2" t="n">
         <v>347578.4010421127</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.4010421126</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="I2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="J2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="K2" t="n">
         <v>347578.4010421128</v>
       </c>
       <c r="L2" t="n">
+        <v>347578.4010421127</v>
+      </c>
+      <c r="M2" t="n">
         <v>347578.4010421128</v>
-      </c>
-      <c r="M2" t="n">
-        <v>347578.401042113</v>
       </c>
       <c r="N2" t="n">
         <v>347578.4010421128</v>
@@ -26355,7 +26355,7 @@
         <v>347578.4010421127</v>
       </c>
       <c r="P2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.4010421126</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100689</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093387</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647531</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404713</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>203402.6837676921</v>
       </c>
       <c r="D4" t="n">
-        <v>127926.5646606755</v>
+        <v>127926.5646606757</v>
       </c>
       <c r="E4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="F4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="G4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
         <v>74374.35696474131</v>
@@ -26459,7 +26459,7 @@
         <v>74374.35696474131</v>
       </c>
       <c r="P4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520034</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26524,46 +26524,46 @@
         <v>-52809.51546140714</v>
       </c>
       <c r="C6" t="n">
-        <v>122145.9944317073</v>
+        <v>122145.9944317071</v>
       </c>
       <c r="D6" t="n">
-        <v>-7837.361648047809</v>
+        <v>-7837.361648047518</v>
       </c>
       <c r="E6" t="n">
-        <v>175369.8796515642</v>
+        <v>175189.2990589149</v>
       </c>
       <c r="F6" t="n">
-        <v>202338.8338324982</v>
+        <v>202158.253239849</v>
       </c>
       <c r="G6" t="n">
-        <v>202338.8338324981</v>
+        <v>202158.253239849</v>
       </c>
       <c r="H6" t="n">
-        <v>202338.833832498</v>
+        <v>202158.2532398491</v>
       </c>
       <c r="I6" t="n">
-        <v>202338.8338324983</v>
+        <v>202158.2532398491</v>
       </c>
       <c r="J6" t="n">
-        <v>65744.0330266034</v>
+        <v>65563.45243395396</v>
       </c>
       <c r="K6" t="n">
-        <v>202338.8338324982</v>
+        <v>202158.2532398491</v>
       </c>
       <c r="L6" t="n">
-        <v>62339.52296774508</v>
+        <v>62158.94237509626</v>
       </c>
       <c r="M6" t="n">
-        <v>179829.5690584512</v>
+        <v>179648.9884658017</v>
       </c>
       <c r="N6" t="n">
-        <v>202338.8338324982</v>
+        <v>202158.2532398491</v>
       </c>
       <c r="O6" t="n">
-        <v>202338.8338324981</v>
+        <v>202158.253239849</v>
       </c>
       <c r="P6" t="n">
-        <v>202338.8338324981</v>
+        <v>202158.2532398489</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342111</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720855</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067401</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118.0612222666041</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>325.994634282359</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>82.72219368060941</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>211.6605923307698</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>346.5168224517371</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>368.7448694029866</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>56.01419322081136</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>184.6134679555821</v>
+        <v>184.6134679555875</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>57.06664624006523</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>156.165880162371</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>10.70163254908636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>223.5089286097009</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>210.7165365725543</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>207.1197339838565</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>637.2548221010592</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>636.5391732245107</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>3.298283025005639</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P20" t="n">
         <v>534.50171506985</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>333.1858818629449</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>187.8787539415198</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
